--- a/Semester_1/Statistics_for_Data_Analytics/2_25_Sept_01_Oct_2023/Exercise_2_Descriptive_Stats.xlsx
+++ b/Semester_1/Statistics_for_Data_Analytics/2_25_Sept_01_Oct_2023/Exercise_2_Descriptive_Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miant\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydbs-my.sharepoint.com/personal/10539218_mydbs_ie/Documents/Desktop/MSc_Data_Analytics_CCT_Materials/Semester_1/Statistics_for_Data_Analytics/2_25_Sept_01_Oct_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16300BF3-2462-4EF6-AE41-D19ED1A0793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{16300BF3-2462-4EF6-AE41-D19ED1A0793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2AB975-09BF-431D-A821-F6FCDC7688DA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B22A8B13-5BCD-4D80-982D-EB99D29D62BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B22A8B13-5BCD-4D80-982D-EB99D29D62BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -154,37 +154,37 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,6 +525,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
